--- a/team_details.xlsx
+++ b/team_details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eka Yunia\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLASSIFICATION IMAGE\Image-Classification_270-268\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B036E94-576B-44AE-A505-308B7DDE959E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80153D-38CB-4304-AACA-A8B3248406C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3C6157ED-8058-4A0A-950D-ED200E7FB2F3}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Judul Artikel</t>
   </si>
   <si>
-    <t>2. Tiara Intana Sari</t>
-  </si>
-  <si>
     <t>A study on Image Classification based on Deep Learning and Tensorflow</t>
   </si>
   <si>
@@ -54,10 +51,13 @@
     <t>Klasifikasi 5 jenis bunga menggunakan CNN</t>
   </si>
   <si>
-    <t>1. Ulfah Nur Oktaviana</t>
-  </si>
-  <si>
     <t>Dataset : https://www.kaggle.com/alxmamaev/flowers-recognition</t>
+  </si>
+  <si>
+    <t>1. Eka Yunia Primastuti</t>
+  </si>
+  <si>
+    <t>2. Yulisha Dian Cahyaningrum</t>
   </si>
 </sst>
 </file>
@@ -148,13 +148,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,27 +508,27 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/team_details.xlsx
+++ b/team_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLASSIFICATION IMAGE\Image-Classification_270-268\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80153D-38CB-4304-AACA-A8B3248406C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD6BEA-A737-4C9D-9281-7E3B6CB2DDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3C6157ED-8058-4A0A-950D-ED200E7FB2F3}"/>
   </bookViews>
@@ -137,13 +137,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -475,7 +472,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,30 +502,30 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
